--- a/data/balance_sheet/3digits/total/750_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/750_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>750-Veterinary activities</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>750-Veterinary activities</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>102582.52782</v>
@@ -1487,35 +937,40 @@
         <v>146224.54006</v>
       </c>
       <c r="F5" s="33" t="n">
-        <v>172193.41732</v>
+        <v>172487.40533</v>
       </c>
       <c r="G5" s="32" t="n">
-        <v>188611.63711</v>
+        <v>188835.36928</v>
       </c>
       <c r="H5" s="33" t="n">
-        <v>198593.38565</v>
+        <v>198791.93285</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>258027.82522</v>
+        <v>258265.98756</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>314021.30836</v>
+        <v>314043.77344</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>419919.3596799999</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>417044.8992900001</v>
+        <v>418044.5374</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>536371.50501</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>567178.5136900001</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>799169.379</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>19490.30321</v>
@@ -1527,35 +982,40 @@
         <v>17754.6079</v>
       </c>
       <c r="F6" s="33" t="n">
-        <v>23632.41688</v>
+        <v>23762.8544</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>27135.08082</v>
+        <v>27168.29514000001</v>
       </c>
       <c r="H6" s="33" t="n">
-        <v>12082.58848</v>
+        <v>12136.50999</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>30878.54889</v>
+        <v>30929.06435</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>36467.58921</v>
+        <v>36489.71406000001</v>
       </c>
       <c r="K6" s="23" t="n">
-        <v>54676.72561000001</v>
+        <v>54676.72561</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>50943.11374</v>
+        <v>51293.96887999999</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>72342.54213</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>69152.77237000001</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>126884.152</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>15373.84157</v>
@@ -1567,35 +1027,40 @@
         <v>11504.00432</v>
       </c>
       <c r="F7" s="21" t="n">
-        <v>14037.52055</v>
+        <v>14047.68056</v>
       </c>
       <c r="G7" s="22" t="n">
-        <v>14285.74657</v>
+        <v>14317.42569</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>11750.25108</v>
+        <v>11798.45769</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>14553.85596</v>
+        <v>14595.34293</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>12532.38195</v>
+        <v>12554.40405</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>21826.71737</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>19530.93551</v>
+        <v>19600.65891</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>25144.57345</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>25526.90469</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>38890.727</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>1030.96771</v>
@@ -1628,54 +1093,64 @@
         <v>4969.045889999999</v>
       </c>
       <c r="M8" s="22" t="n">
-        <v>12882.99858</v>
-      </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+        <v>12846.97557</v>
+      </c>
+      <c r="N8" s="22" t="n">
+        <v>12597.399</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
-        <v>3440.951669999999</v>
+        <v>3440.95167</v>
       </c>
       <c r="D9" s="22" t="n">
         <v>3053.27767</v>
       </c>
       <c r="E9" s="22" t="n">
-        <v>5259.78929</v>
+        <v>5259.789290000001</v>
       </c>
       <c r="F9" s="21" t="n">
-        <v>9244.548729999999</v>
+        <v>9363.841400000001</v>
       </c>
       <c r="G9" s="22" t="n">
-        <v>8786.95685</v>
+        <v>8788.21905</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>11628.04708</v>
+        <v>11633.52462</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>11946.8371</v>
+        <v>11955.68327</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>16557.10115</v>
+        <v>16557.2039</v>
       </c>
       <c r="K9" s="22" t="n">
         <v>26928.29559</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>24533.91355</v>
+        <v>24720.32575</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>46414.85174000001</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>46749.91411</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>85713.175</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>1838.15036</v>
@@ -1696,7 +1171,7 @@
         <v>22041.74959</v>
       </c>
       <c r="I10" s="22" t="n">
-        <v>9933.782870000001</v>
+        <v>9933.782869999999</v>
       </c>
       <c r="J10" s="21" t="n">
         <v>11677.9016</v>
@@ -1708,14 +1183,19 @@
         <v>10416.70079</v>
       </c>
       <c r="M10" s="22" t="n">
-        <v>24267.81898</v>
-      </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+        <v>28413.15665</v>
+      </c>
+      <c r="N10" s="22" t="n">
+        <v>32233.315</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>1482.69262</v>
@@ -1727,16 +1207,16 @@
         <v>1756.75533</v>
       </c>
       <c r="F11" s="21" t="n">
-        <v>2526.72003</v>
+        <v>2527.70487</v>
       </c>
       <c r="G11" s="22" t="n">
-        <v>3110.2521</v>
+        <v>3110.5251</v>
       </c>
       <c r="H11" s="21" t="n">
-        <v>4101.78794</v>
+        <v>4102.0253</v>
       </c>
       <c r="I11" s="22" t="n">
-        <v>4837.14621</v>
+        <v>4837.328530000001</v>
       </c>
       <c r="J11" s="21" t="n">
         <v>6075.826720000001</v>
@@ -1745,17 +1225,22 @@
         <v>9886.483330000001</v>
       </c>
       <c r="L11" s="22" t="n">
-        <v>12325.91958</v>
+        <v>12420.63912</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>12167.93734</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>12442.13465</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>21916.166</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>538.9293699999999</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>2940.97375</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>4961.125</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>366.28042</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>0.63485</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>1150</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>91.6023</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>1190.44064</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>1298.924</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>0</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>97.34987</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>82.22499999999999</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>81.04665</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>1652.54839</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>2429.976</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>15616.95577</v>
@@ -2013,29 +1528,34 @@
         <v>33808.70757999999</v>
       </c>
       <c r="H18" s="33" t="n">
-        <v>43684.47007</v>
+        <v>43684.67506999999</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>62077.96364</v>
+        <v>62078.66364</v>
       </c>
       <c r="J18" s="33" t="n">
         <v>65631.84625</v>
       </c>
       <c r="K18" s="23" t="n">
-        <v>91531.77949999999</v>
+        <v>91531.7795</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>82939.50352</v>
+        <v>83009.50839</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>106266.14643</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>113960.56869</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>139506.101</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>13590.09503</v>
@@ -2053,29 +1573,34 @@
         <v>28841.82126</v>
       </c>
       <c r="H19" s="21" t="n">
-        <v>36007.2355</v>
+        <v>36007.4405</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>51739.53725</v>
+        <v>51740.23725</v>
       </c>
       <c r="J19" s="21" t="n">
         <v>53810.74455</v>
       </c>
       <c r="K19" s="22" t="n">
-        <v>78104.26404000001</v>
+        <v>78104.26403999999</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>66303.48741</v>
+        <v>66373.49227000002</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>93146.06950999999</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>94788.74232999999</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>114847.924</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>1738.56322</v>
@@ -2093,7 +1618,7 @@
         <v>4190.31474</v>
       </c>
       <c r="H20" s="21" t="n">
-        <v>6815.444860000001</v>
+        <v>6815.44486</v>
       </c>
       <c r="I20" s="22" t="n">
         <v>7697.67445</v>
@@ -2105,17 +1630,22 @@
         <v>11286.50892</v>
       </c>
       <c r="L20" s="22" t="n">
-        <v>14028.75849</v>
+        <v>14028.7585</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>10653.24785</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>16678.59354</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>20460.165</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>12.79514</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>12.795</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>15.14686</v>
@@ -2213,7 +1753,7 @@
         <v>16.42682</v>
       </c>
       <c r="H23" s="21" t="n">
-        <v>83.92004</v>
+        <v>83.92004000000001</v>
       </c>
       <c r="I23" s="22" t="n">
         <v>180.73946</v>
@@ -2228,14 +1768,19 @@
         <v>172.66192</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>162.02844</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>172.41031</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>381.239</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>152.60846</v>
@@ -2268,14 +1813,19 @@
         <v>1259.35907</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>1170.31654</v>
-      </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+        <v>1186.33842</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>2613.57</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>216.14907</v>
@@ -2308,14 +1858,19 @@
         <v>4500.77661</v>
       </c>
       <c r="M25" s="22" t="n">
-        <v>4943.59027</v>
-      </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+        <v>4943.590270000001</v>
+      </c>
+      <c r="N25" s="22" t="n">
+        <v>2230.734</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>95.60687</v>
@@ -2350,12 +1905,17 @@
       <c r="M26" s="22" t="n">
         <v>3796.31104</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>1014.736</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>3468.70005</v>
@@ -2385,17 +1945,22 @@
         <v>12433.10028</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>11629.47764</v>
+        <v>11688.87112</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>23597.91496</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>24504.1895</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>32311.581</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>2619.73479</v>
@@ -2425,17 +1990,22 @@
         <v>10199.21616</v>
       </c>
       <c r="L28" s="22" t="n">
-        <v>9228.421469999999</v>
+        <v>9287.576489999999</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>20070.50678</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>20966.52464</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>23980.279</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>0</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>10.12758</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>0</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>4.341600000000001</v>
@@ -2550,12 +2130,17 @@
       <c r="M31" s="22" t="n">
         <v>174.57562</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>316.081</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>844.5672499999999</v>
@@ -2573,10 +2158,10 @@
         <v>1199.03104</v>
       </c>
       <c r="H32" s="21" t="n">
-        <v>622.8128400000001</v>
+        <v>622.8128399999999</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>946.2472</v>
+        <v>946.2471999999999</v>
       </c>
       <c r="J32" s="21" t="n">
         <v>2182.75703</v>
@@ -2585,17 +2170,22 @@
         <v>1875.72399</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>2175.84111</v>
+        <v>2176.07957</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>3342.70498</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>3352.96166</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>8015.221</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0.05640999999999999</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,33 +2310,38 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
-        <v>57150.35220999999</v>
+        <v>57150.35221</v>
       </c>
       <c r="D36" s="23" t="n">
-        <v>74356.59496</v>
+        <v>74356.59495999999</v>
       </c>
       <c r="E36" s="23" t="n">
-        <v>93394.27071</v>
+        <v>93394.27071000001</v>
       </c>
       <c r="F36" s="33" t="n">
-        <v>106127.30136</v>
+        <v>106286.43706</v>
       </c>
       <c r="G36" s="23" t="n">
-        <v>111133.95653</v>
+        <v>111307.15898</v>
       </c>
       <c r="H36" s="33" t="n">
-        <v>125292.71576</v>
+        <v>125420.70453</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>139248.6864</v>
+        <v>139400.635</v>
       </c>
       <c r="J36" s="33" t="n">
         <v>185893.04218</v>
@@ -2745,17 +2350,22 @@
         <v>239416.01261</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>240383.81273</v>
+        <v>240773.23759</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>277346.1328500001</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>300967.40358</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>424966.815</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>2401.31275</v>
@@ -2779,23 +2389,28 @@
         <v>3415.63489</v>
       </c>
       <c r="J37" s="21" t="n">
-        <v>4873.65789</v>
+        <v>4873.657889999999</v>
       </c>
       <c r="K37" s="22" t="n">
         <v>11944.52527</v>
       </c>
       <c r="L37" s="22" t="n">
-        <v>5973.077689999999</v>
+        <v>5976.043789999999</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>6580.04268</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>6830.91978</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>9151.859</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>193.23256</v>
@@ -2816,7 +2431,7 @@
         <v>5948.803359999999</v>
       </c>
       <c r="I38" s="22" t="n">
-        <v>4383.74976</v>
+        <v>4383.749760000001</v>
       </c>
       <c r="J38" s="21" t="n">
         <v>8141.80562</v>
@@ -2830,12 +2445,17 @@
       <c r="M38" s="22" t="n">
         <v>432.36054</v>
       </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+      <c r="N38" s="22" t="n">
+        <v>3764.098</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>1010.58123</v>
@@ -2870,15 +2490,20 @@
       <c r="M39" s="22" t="n">
         <v>4775.77191</v>
       </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+      <c r="N39" s="22" t="n">
+        <v>949.684</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
-        <v>51011.65498</v>
+        <v>51011.65498000001</v>
       </c>
       <c r="D40" s="22" t="n">
         <v>63571.27514</v>
@@ -2887,16 +2512,16 @@
         <v>80366.71304</v>
       </c>
       <c r="F40" s="21" t="n">
-        <v>82700.72506</v>
+        <v>82859.27361</v>
       </c>
       <c r="G40" s="22" t="n">
-        <v>87921.21234</v>
+        <v>88093.82764</v>
       </c>
       <c r="H40" s="21" t="n">
-        <v>97515.40281999999</v>
+        <v>97643.39159</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>121383.21014</v>
+        <v>121535.15874</v>
       </c>
       <c r="J40" s="21" t="n">
         <v>155564.13899</v>
@@ -2905,17 +2530,22 @@
         <v>194067.76798</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>209341.35606</v>
+        <v>209726.50619</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>237407.02662</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>259674.05577</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>358822.733</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>684.93806</v>
@@ -2939,7 +2569,7 @@
         <v>201.18782</v>
       </c>
       <c r="J41" s="21" t="n">
-        <v>902.8321100000001</v>
+        <v>902.8321099999999</v>
       </c>
       <c r="K41" s="22" t="n">
         <v>861.0836400000001</v>
@@ -2948,14 +2578,19 @@
         <v>1596.23211</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>371.18731</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>451.83292</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>1044.255</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>71.10726</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>1919.73989</v>
@@ -3004,19 +2644,19 @@
         <v>5196.48106</v>
       </c>
       <c r="E43" s="22" t="n">
-        <v>6972.870940000001</v>
+        <v>6972.87094</v>
       </c>
       <c r="F43" s="21" t="n">
-        <v>15321.05596</v>
+        <v>15321.64311</v>
       </c>
       <c r="G43" s="22" t="n">
-        <v>15032.02646</v>
+        <v>15032.61361</v>
       </c>
       <c r="H43" s="21" t="n">
         <v>16916.60977</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>7828.87809</v>
+        <v>7828.878090000001</v>
       </c>
       <c r="J43" s="21" t="n">
         <v>15537.07493</v>
@@ -3025,17 +2665,22 @@
         <v>22682.44114</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>15809.86197</v>
+        <v>15811.1706</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>27779.74379</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>28802.46266</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>51234.186</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>0</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>28412.57356</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>29612.15</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>0</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>28412.57356</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>29612.15</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>405.46109</v>
@@ -3207,10 +2872,10 @@
         <v>513.60756</v>
       </c>
       <c r="F48" s="45" t="n">
-        <v>549.0609199999999</v>
+        <v>549.06092</v>
       </c>
       <c r="G48" s="46" t="n">
-        <v>956.96537</v>
+        <v>956.9653699999999</v>
       </c>
       <c r="H48" s="45" t="n">
         <v>1014.69029</v>
@@ -3225,17 +2890,22 @@
         <v>2347.49163</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>2693.7898</v>
+        <v>2696.28586</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>3804.320540000001</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>3829.49825</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>5003.089</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>403.78321</v>
@@ -3265,17 +2935,22 @@
         <v>2317.61401</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>2590.92008</v>
+        <v>2593.41614</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>3754.59503</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>3779.77274</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>4956.182</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>1.67788</v>
@@ -3310,12 +2985,17 @@
       <c r="M50" s="22" t="n">
         <v>49.72551</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>46.907</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>5911.82612</v>
@@ -3327,38 +3007,43 @@
         <v>9383.88091</v>
       </c>
       <c r="F51" s="45" t="n">
-        <v>11006.5383</v>
+        <v>11010.95309</v>
       </c>
       <c r="G51" s="46" t="n">
-        <v>10796.58057</v>
+        <v>10813.89597</v>
       </c>
       <c r="H51" s="45" t="n">
-        <v>11682.28972</v>
+        <v>11698.72164</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>15658.8554</v>
+        <v>15693.85368</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>13821.61147</v>
+        <v>13821.9517</v>
       </c>
       <c r="K51" s="46" t="n">
         <v>18112.54748</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>18635.01384</v>
+        <v>18762.47754</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>21660.90079</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>23410.53399</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>35924.366</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
-        <v>5316.0482</v>
+        <v>5316.048199999999</v>
       </c>
       <c r="D52" s="22" t="n">
         <v>6745.22885</v>
@@ -3367,35 +3052,40 @@
         <v>8073.40784</v>
       </c>
       <c r="F52" s="21" t="n">
-        <v>9388.385029999999</v>
+        <v>9392.79982</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>9917.908549999998</v>
+        <v>9934.62508</v>
       </c>
       <c r="H52" s="21" t="n">
-        <v>9489.673639999999</v>
+        <v>9505.972750000001</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>10675.74325</v>
+        <v>10699.31076</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>11982.07118</v>
+        <v>11982.41141</v>
       </c>
       <c r="K52" s="22" t="n">
         <v>14281.02784</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>14338.70643</v>
+        <v>14466.17013</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>16704.12614</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>18385.92152</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>29380.766</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>41.39436</v>
@@ -3413,7 +3103,7 @@
         <v>46.136</v>
       </c>
       <c r="H53" s="21" t="n">
-        <v>113.63597</v>
+        <v>113.76878</v>
       </c>
       <c r="I53" s="22" t="n">
         <v>55.90194</v>
@@ -3428,14 +3118,19 @@
         <v>176.94498</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>782.5417400000001</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>790.24603</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>841.499</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>55.74061</v>
@@ -3468,14 +3163,19 @@
         <v>8.313319999999999</v>
       </c>
       <c r="M54" s="22" t="n">
-        <v>9.682549999999999</v>
-      </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+        <v>10.25916</v>
+      </c>
+      <c r="N54" s="22" t="n">
+        <v>9.981999999999999</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>275.43063</v>
@@ -3490,32 +3190,37 @@
         <v>475.05805</v>
       </c>
       <c r="G55" s="22" t="n">
-        <v>292.53988</v>
+        <v>293.13875</v>
       </c>
       <c r="H55" s="21" t="n">
         <v>476.97493</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>708.1622000000001</v>
+        <v>719.5929699999999</v>
       </c>
       <c r="J55" s="21" t="n">
         <v>595.0074000000001</v>
       </c>
       <c r="K55" s="22" t="n">
-        <v>888.86082</v>
+        <v>888.8608200000001</v>
       </c>
       <c r="L55" s="22" t="n">
         <v>1798.6146</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>1280.5106</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>1338.10905</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>1915.019</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>212.79877</v>
@@ -3536,7 +3241,7 @@
         <v>1440.96675</v>
       </c>
       <c r="I56" s="22" t="n">
-        <v>4103.17331</v>
+        <v>4103.173309999999</v>
       </c>
       <c r="J56" s="21" t="n">
         <v>1137.37144</v>
@@ -3548,14 +3253,19 @@
         <v>2083.40832</v>
       </c>
       <c r="M56" s="22" t="n">
-        <v>2621.74013</v>
-      </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+        <v>2623.6986</v>
+      </c>
+      <c r="N56" s="22" t="n">
+        <v>3351.946</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>10.23</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>261.47502</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>424.755</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>0.00902</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>0.18355</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>0.81559</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>24525.00323</v>
@@ -3726,16 +3456,16 @@
         <v>40560.06064</v>
       </c>
       <c r="F61" s="37" t="n">
-        <v>48837.39958</v>
+        <v>48896.37884</v>
       </c>
       <c r="G61" s="36" t="n">
-        <v>52325.88211999999</v>
+        <v>52652.68754</v>
       </c>
       <c r="H61" s="37" t="n">
-        <v>58608.43684</v>
+        <v>58976.60831</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>70163.73774</v>
+        <v>70519.36053000001</v>
       </c>
       <c r="J61" s="37" t="n">
         <v>80938.79421000001</v>
@@ -3744,17 +3474,22 @@
         <v>103012.22914</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>101561.93061</v>
+        <v>102200.48144</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>145029.29014</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>142431.40238</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>211903.943</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>36.03157999999999</v>
@@ -3784,17 +3519,22 @@
         <v>1405.8663</v>
       </c>
       <c r="L62" s="36" t="n">
-        <v>1547.12517</v>
+        <v>1547.84984</v>
       </c>
       <c r="M62" s="36" t="n">
-        <v>8122.316680000001</v>
-      </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+        <v>2100.81341</v>
+      </c>
+      <c r="N62" s="36" t="n">
+        <v>2528.744</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>25.50355</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>242.298</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>387.298</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3867,14 +3612,19 @@
         <v>1280.51502</v>
       </c>
       <c r="M64" s="22" t="n">
-        <v>7703.05834</v>
-      </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+        <v>1680.51265</v>
+      </c>
+      <c r="N64" s="22" t="n">
+        <v>1966.998</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>10.52803</v>
@@ -3972,7 +3732,7 @@
         <v>99.40459</v>
       </c>
       <c r="H67" s="21" t="n">
-        <v>97.50027</v>
+        <v>97.50026999999999</v>
       </c>
       <c r="I67" s="22" t="n">
         <v>82.17376000000002</v>
@@ -3984,17 +3744,22 @@
         <v>105.8663</v>
       </c>
       <c r="L67" s="22" t="n">
-        <v>167.71015</v>
+        <v>168.43482</v>
       </c>
       <c r="M67" s="22" t="n">
-        <v>176.96034</v>
-      </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+        <v>178.00276</v>
+      </c>
+      <c r="N67" s="22" t="n">
+        <v>174.448</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>303.01242</v>
@@ -4069,12 +3839,17 @@
       <c r="M69" s="36" t="n">
         <v>2159.59819</v>
       </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+      <c r="N69" s="36" t="n">
+        <v>4962.839</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>190.33971</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>2106.07512</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>4474.47</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>112.67271</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>53.52307</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>488.369</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>4.65</v>
@@ -4375,7 +4185,7 @@
         <v>304.86617</v>
       </c>
       <c r="I77" s="23" t="n">
-        <v>823.17617</v>
+        <v>823.1761700000001</v>
       </c>
       <c r="J77" s="33" t="n">
         <v>300.1</v>
@@ -4389,12 +4199,17 @@
       <c r="M77" s="23" t="n">
         <v>325.1</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>300.1</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>0</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>4.65</v>
@@ -4495,7 +4320,7 @@
         <v>304.86617</v>
       </c>
       <c r="I80" s="22" t="n">
-        <v>823.17617</v>
+        <v>823.1761700000001</v>
       </c>
       <c r="J80" s="21" t="n">
         <v>300.1</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>300.1</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>300.1</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>0</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>0</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>25</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,12 +4649,17 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>21880.40397</v>
@@ -4806,16 +4671,16 @@
         <v>33673.67262</v>
       </c>
       <c r="F88" s="33" t="n">
-        <v>36678.58987</v>
+        <v>36733.31574000001</v>
       </c>
       <c r="G88" s="23" t="n">
-        <v>39560.66737</v>
+        <v>39874.22579</v>
       </c>
       <c r="H88" s="33" t="n">
-        <v>45598.10840999999</v>
+        <v>45960.64978</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>62531.94753000001</v>
+        <v>62878.31022</v>
       </c>
       <c r="J88" s="33" t="n">
         <v>67902.12611</v>
@@ -4824,17 +4689,22 @@
         <v>86909.74270999999</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>81422.58053000001</v>
+        <v>82022.84937000001</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>111017.45793</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>113919.58007</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>168844.106</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>168.4743</v>
@@ -4846,7 +4716,7 @@
         <v>710.26627</v>
       </c>
       <c r="F89" s="21" t="n">
-        <v>562.4304</v>
+        <v>562.4304000000001</v>
       </c>
       <c r="G89" s="22" t="n">
         <v>1056.01784</v>
@@ -4869,12 +4739,17 @@
       <c r="M89" s="22" t="n">
         <v>2429.25332</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>5657.545</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>35.11743</v>
@@ -4909,12 +4784,17 @@
       <c r="M90" s="22" t="n">
         <v>52.50811</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>29.008</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>3222.06131</v>
@@ -4929,13 +4809,13 @@
         <v>6986.372189999999</v>
       </c>
       <c r="G91" s="22" t="n">
-        <v>9262.251249999999</v>
+        <v>9390.632180000001</v>
       </c>
       <c r="H91" s="21" t="n">
-        <v>8993.1471</v>
+        <v>9121.528029999999</v>
       </c>
       <c r="I91" s="22" t="n">
-        <v>14908.60058</v>
+        <v>15036.98151</v>
       </c>
       <c r="J91" s="21" t="n">
         <v>17468.64351</v>
@@ -4947,14 +4827,19 @@
         <v>16419.43718</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>27112.01331</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>27212.01331</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>31810.774</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>2494.57044</v>
@@ -4972,7 +4857,7 @@
         <v>4969.96497</v>
       </c>
       <c r="H92" s="21" t="n">
-        <v>5888.43122</v>
+        <v>5888.431219999999</v>
       </c>
       <c r="I92" s="22" t="n">
         <v>8394.844929999999</v>
@@ -4984,17 +4869,22 @@
         <v>13347.04837</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>17100.49669</v>
+        <v>17420.09154</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>22247.58322</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>23207.45103</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>38535.625</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>15679.58705</v>
@@ -5006,38 +4896,43 @@
         <v>21169.06596</v>
       </c>
       <c r="F93" s="21" t="n">
-        <v>22681.93171</v>
+        <v>22705.76111</v>
       </c>
       <c r="G93" s="22" t="n">
-        <v>23704.08173</v>
+        <v>23755.7118</v>
       </c>
       <c r="H93" s="21" t="n">
-        <v>28612.67874</v>
+        <v>28664.30881</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>35058.67373999999</v>
+        <v>35110.30381</v>
       </c>
       <c r="J93" s="21" t="n">
         <v>38699.8101</v>
       </c>
       <c r="K93" s="22" t="n">
-        <v>47406.38845999999</v>
+        <v>47406.38846</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>47891.01132</v>
+        <v>48080.62220000001</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>60792.18016</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>61845.84483</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>81911.86199999999</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
-        <v>9095.752469999999</v>
+        <v>9095.752470000001</v>
       </c>
       <c r="D94" s="22" t="n">
         <v>11592.31315</v>
@@ -5046,16 +4941,16 @@
         <v>13363.63254</v>
       </c>
       <c r="F94" s="21" t="n">
-        <v>15300.87982</v>
+        <v>15352.69906</v>
       </c>
       <c r="G94" s="22" t="n">
-        <v>16095.53267</v>
+        <v>16218.92144</v>
       </c>
       <c r="H94" s="21" t="n">
-        <v>18727.57559</v>
+        <v>18926.98512</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>23684.12124</v>
+        <v>23886.40484</v>
       </c>
       <c r="J94" s="21" t="n">
         <v>28469.43405</v>
@@ -5064,17 +4959,22 @@
         <v>35307.22536</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>39184.34182</v>
+        <v>39323.85928</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>49871.92033000001</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>51671.0773</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>78033.538</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>283.11917</v>
@@ -5107,14 +5007,19 @@
         <v>324.31448</v>
       </c>
       <c r="M95" s="22" t="n">
-        <v>334.8627</v>
-      </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+        <v>335.8807</v>
+      </c>
+      <c r="N95" s="22" t="n">
+        <v>520.482</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>10566.96516</v>
@@ -5126,16 +5031,16 @@
         <v>14541.92315</v>
       </c>
       <c r="F96" s="21" t="n">
-        <v>16613.87666</v>
+        <v>16634.79943</v>
       </c>
       <c r="G96" s="22" t="n">
-        <v>17937.07093</v>
+        <v>17969.9244</v>
       </c>
       <c r="H96" s="21" t="n">
-        <v>21087.87268</v>
+        <v>21149.84628</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>25661.95864</v>
+        <v>25738.45224</v>
       </c>
       <c r="J96" s="21" t="n">
         <v>31134.12656</v>
@@ -5144,17 +5049,22 @@
         <v>39708.95924</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>43792.97427</v>
+        <v>43841.42862</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>53585.46797999999</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>54597.05328999999</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>71803.79399999999</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>1270.28887</v>
@@ -5189,12 +5099,17 @@
       <c r="M97" s="22" t="n">
         <v>888.61936</v>
       </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+      <c r="N97" s="22" t="n">
+        <v>2676.251</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>198.39809</v>
@@ -5209,13 +5124,13 @@
         <v>247.20078</v>
       </c>
       <c r="G98" s="22" t="n">
-        <v>62.44</v>
+        <v>105.45212</v>
       </c>
       <c r="H98" s="21" t="n">
-        <v>16.73299</v>
+        <v>61.82743</v>
       </c>
       <c r="I98" s="22" t="n">
-        <v>924.5326499999999</v>
+        <v>965.09434</v>
       </c>
       <c r="J98" s="21" t="n">
         <v>162.90692</v>
@@ -5229,12 +5144,17 @@
       <c r="M98" s="22" t="n">
         <v>873.9854</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>1472.815</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>1261.11194</v>
@@ -5246,16 +5166,16 @@
         <v>4647.56669</v>
       </c>
       <c r="F99" s="33" t="n">
-        <v>9684.405359999999</v>
+        <v>9688.09978</v>
       </c>
       <c r="G99" s="23" t="n">
-        <v>9107.06626</v>
+        <v>9112.13739</v>
       </c>
       <c r="H99" s="33" t="n">
-        <v>9014.514539999998</v>
+        <v>9019.58567</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>2977.428519999999</v>
+        <v>2982.49965</v>
       </c>
       <c r="J99" s="33" t="n">
         <v>3914.02861</v>
@@ -5264,17 +5184,22 @@
         <v>5997.37527</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>6352.080180000001</v>
+        <v>6389.39045</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>10008.78138</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>10175.27212</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>20757.319</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>241.14579</v>
@@ -5301,20 +5226,25 @@
         <v>690.55913</v>
       </c>
       <c r="K100" s="22" t="n">
-        <v>804.2295700000001</v>
+        <v>804.22957</v>
       </c>
       <c r="L100" s="22" t="n">
-        <v>1086.59191</v>
+        <v>1091.36373</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>1526.90066</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>1559.59684</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>2840.738</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>124.27333</v>
@@ -5366,16 +5301,16 @@
         <v>161.98107</v>
       </c>
       <c r="F102" s="21" t="n">
-        <v>156.80242</v>
+        <v>158.2934</v>
       </c>
       <c r="G102" s="22" t="n">
-        <v>149.82119</v>
+        <v>149.87212</v>
       </c>
       <c r="H102" s="21" t="n">
-        <v>148.10108</v>
+        <v>148.15201</v>
       </c>
       <c r="I102" s="22" t="n">
-        <v>188.16866</v>
+        <v>188.21959</v>
       </c>
       <c r="J102" s="21" t="n">
         <v>185.84562</v>
@@ -5384,17 +5319,22 @@
         <v>200.77116</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>220.93848</v>
+        <v>227.46381</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>234.48132</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>256.41018</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>286.938</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>0</v>
@@ -5429,12 +5369,17 @@
       <c r="M103" s="22" t="n">
         <v>25</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>90.95399999999999</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>1375.88111</v>
@@ -5446,16 +5391,16 @@
         <v>5219.82016</v>
       </c>
       <c r="F104" s="21" t="n">
-        <v>10677.74641</v>
+        <v>10680.28878</v>
       </c>
       <c r="G104" s="22" t="n">
-        <v>11260.92346</v>
+        <v>11265.99458</v>
       </c>
       <c r="H104" s="21" t="n">
-        <v>10920.90208</v>
+        <v>10925.9732</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>3696.94888</v>
+        <v>3702.02</v>
       </c>
       <c r="J104" s="21" t="n">
         <v>4247.82884</v>
@@ -5464,17 +5409,22 @@
         <v>5326.592310000001</v>
       </c>
       <c r="L104" s="22" t="n">
-        <v>7332.968910000001</v>
+        <v>7361.746810000001</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>9920.50223</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>10062.05288</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>21954.391</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>177.72455</v>
@@ -5507,14 +5457,19 @@
         <v>235.16356</v>
       </c>
       <c r="M105" s="22" t="n">
-        <v>209.86351</v>
-      </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+        <v>264.39326</v>
+      </c>
+      <c r="N105" s="22" t="n">
+        <v>1283.848</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>657.91284</v>
@@ -5526,16 +5481,16 @@
         <v>1349.30478</v>
       </c>
       <c r="F106" s="21" t="n">
-        <v>2023.26897</v>
+        <v>2023.6079</v>
       </c>
       <c r="G106" s="22" t="n">
-        <v>2877.97044</v>
+        <v>2878.02136</v>
       </c>
       <c r="H106" s="21" t="n">
-        <v>2932.77613</v>
+        <v>2932.82705</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>1839.78633</v>
+        <v>1839.83725</v>
       </c>
       <c r="J106" s="21" t="n">
         <v>2196.95353</v>
@@ -5544,17 +5499,22 @@
         <v>2749.058</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>3390.24729</v>
+        <v>3393.01207</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>4528.53801</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>4612.75271</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>7620.153</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>2620.57167</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>1920.603</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>0.01701</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0.01701</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,33 +5819,38 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>907.45948</v>
       </c>
       <c r="D114" s="23" t="n">
-        <v>866.06692</v>
+        <v>866.0669200000001</v>
       </c>
       <c r="E114" s="23" t="n">
         <v>1293.35808</v>
       </c>
       <c r="F114" s="33" t="n">
-        <v>1878.33287</v>
+        <v>1878.89184</v>
       </c>
       <c r="G114" s="23" t="n">
-        <v>2165.24558</v>
+        <v>2173.42145</v>
       </c>
       <c r="H114" s="33" t="n">
-        <v>2775.4793</v>
+        <v>2776.03827</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>2610.68284</v>
+        <v>2614.87181</v>
       </c>
       <c r="J114" s="33" t="n">
         <v>3809.83958</v>
@@ -5864,17 +5859,22 @@
         <v>4899.10505</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>3731.89924</v>
+        <v>3732.14629</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>5081.30835</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>5436.31098</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>7308.009</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>907.27973</v>
@@ -5886,16 +5886,16 @@
         <v>1293.35708</v>
       </c>
       <c r="F115" s="21" t="n">
-        <v>1878.33287</v>
+        <v>1878.89184</v>
       </c>
       <c r="G115" s="22" t="n">
-        <v>2165.24558</v>
+        <v>2173.42145</v>
       </c>
       <c r="H115" s="21" t="n">
-        <v>2775.4793</v>
+        <v>2776.03827</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>2610.68284</v>
+        <v>2614.87181</v>
       </c>
       <c r="J115" s="21" t="n">
         <v>3809.83958</v>
@@ -5904,17 +5904,22 @@
         <v>4899.10505</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>3731.89924</v>
+        <v>3732.14629</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>5081.30835</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>5436.310979999999</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>7241.646</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0.17975</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>66.363</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>132.31683</v>
@@ -5989,12 +5999,17 @@
       <c r="M117" s="23" t="n">
         <v>8314.72761</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>7202.826</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>8.382729999999999</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>0.06572</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>2.593</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>2.04831</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>19.66279</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>1492.52286</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>2972.913</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>102.223</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>750.23738</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>398.195</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6344,17 +6399,22 @@
         <v>1934.36784</v>
       </c>
       <c r="L126" s="22" t="n">
-        <v>6490.38812</v>
+        <v>6490.388120000001</v>
       </c>
       <c r="M126" s="22" t="n">
         <v>6071.901650000001</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>3829.125</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>127107.53105</v>
@@ -6366,32 +6426,35 @@
         <v>186784.6007</v>
       </c>
       <c r="F127" s="33" t="n">
-        <v>221030.8169</v>
+        <v>221383.78417</v>
       </c>
       <c r="G127" s="23" t="n">
-        <v>240937.51923</v>
+        <v>241488.05682</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>257201.82249</v>
+        <v>257768.54116</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>328191.56296</v>
+        <v>328785.34809</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>394960.10257</v>
+        <v>394982.56765</v>
       </c>
       <c r="K127" s="23" t="n">
-        <v>522931.58882</v>
+        <v>522931.5888200001</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>518606.8299</v>
+        <v>520245.01884</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>681400.7951499999</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>709609.91607</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>1011073.322</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>750-Veterinary activities</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,52 +6553,62 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
-        <v>65729.21326999999</v>
+        <v>65729.21327000001</v>
       </c>
       <c r="D132" s="23" t="n">
-        <v>88703.52677</v>
+        <v>88703.52677000001</v>
       </c>
       <c r="E132" s="23" t="n">
         <v>102209.45553</v>
       </c>
       <c r="F132" s="33" t="n">
-        <v>128768.56528</v>
+        <v>129008.829</v>
       </c>
       <c r="G132" s="23" t="n">
-        <v>145138.67885</v>
+        <v>145437.75564</v>
       </c>
       <c r="H132" s="33" t="n">
-        <v>147620.05864</v>
+        <v>147916.09463</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>185522.62505</v>
+        <v>185821.78038</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>235400.90563</v>
+        <v>235409.28743</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>313867.49985</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>330676.0058</v>
+        <v>332399.70879</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>439466.11841</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>462418.07328</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>653224.6800000001</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>4248.02641</v>
@@ -6535,19 +6617,19 @@
         <v>6127.36604</v>
       </c>
       <c r="E133" s="23" t="n">
-        <v>7962.464259999999</v>
+        <v>7962.46426</v>
       </c>
       <c r="F133" s="33" t="n">
         <v>9573.856960000001</v>
       </c>
       <c r="G133" s="23" t="n">
-        <v>14818.48002</v>
+        <v>14821.08843</v>
       </c>
       <c r="H133" s="33" t="n">
-        <v>16631.84258</v>
+        <v>16634.45099</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>15726.1847</v>
+        <v>15728.79311</v>
       </c>
       <c r="J133" s="33" t="n">
         <v>21668.7658</v>
@@ -6556,17 +6638,22 @@
         <v>35485.09549</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>32302.08778</v>
+        <v>32333.58109</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>36191.55415</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>35691.07505</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>59870.181</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>4174.61861</v>
@@ -6575,19 +6662,19 @@
         <v>5966.62545</v>
       </c>
       <c r="E134" s="22" t="n">
-        <v>7698.16897</v>
+        <v>7698.168970000001</v>
       </c>
       <c r="F134" s="21" t="n">
         <v>9300.313169999999</v>
       </c>
       <c r="G134" s="22" t="n">
-        <v>13682.36001</v>
+        <v>13684.96842</v>
       </c>
       <c r="H134" s="21" t="n">
-        <v>15636.24574</v>
+        <v>15638.85415</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>14115.37818</v>
+        <v>14117.98659</v>
       </c>
       <c r="J134" s="21" t="n">
         <v>19271.16079</v>
@@ -6596,17 +6683,22 @@
         <v>32082.88324</v>
       </c>
       <c r="L134" s="22" t="n">
-        <v>28165.58829</v>
+        <v>28197.0816</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>31056.36323</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>30555.88413</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>48785.4</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>17.80274</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>178.32747</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>112.735</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>0</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>44.94733</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>13.136</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>33.72514</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>2608.39095</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>7330.969</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>21.87992</v>
@@ -6921,12 +7048,17 @@
       <c r="M142" s="22" t="n">
         <v>2393.41983</v>
       </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+      <c r="N142" s="22" t="n">
+        <v>3654.213</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>35373.09501</v>
@@ -6938,16 +7070,16 @@
         <v>56518.85283</v>
       </c>
       <c r="F143" s="45" t="n">
-        <v>73440.1833</v>
+        <v>73494.57793000001</v>
       </c>
       <c r="G143" s="46" t="n">
-        <v>84306.28373000001</v>
+        <v>84497.27488</v>
       </c>
       <c r="H143" s="45" t="n">
-        <v>84011.10818000001</v>
+        <v>84141.45212</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>118291.1733</v>
+        <v>118422.54618</v>
       </c>
       <c r="J143" s="45" t="n">
         <v>148902.11985</v>
@@ -6956,20 +7088,25 @@
         <v>186378.38447</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>185341.70353</v>
+        <v>186089.81419</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>223181.96307</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>240824.62961</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>367904.044</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
-        <v>29581.73855999999</v>
+        <v>29581.73856</v>
       </c>
       <c r="D144" s="25" t="n">
         <v>37142.44614</v>
@@ -6978,16 +7115,16 @@
         <v>42214.05356</v>
       </c>
       <c r="F144" s="24" t="n">
-        <v>45352.62046</v>
+        <v>45380.51509</v>
       </c>
       <c r="G144" s="25" t="n">
-        <v>53308.39718</v>
+        <v>53350.36433</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>67419.4687</v>
+        <v>67492.76764000001</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>88460.05203000001</v>
+        <v>88541.15843000001</v>
       </c>
       <c r="J144" s="24" t="n">
         <v>107931.09606</v>
@@ -6996,17 +7133,22 @@
         <v>132923.09785</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>128088.73415</v>
+        <v>128784.23358</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>157216.46267</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>170250.2046</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>247854.552</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>4901.42151</v>
@@ -7018,16 +7160,16 @@
         <v>9502.36318</v>
       </c>
       <c r="F145" s="24" t="n">
-        <v>25726.47327</v>
+        <v>25752.97327</v>
       </c>
       <c r="G145" s="25" t="n">
-        <v>28794.84915</v>
+        <v>28943.87315</v>
       </c>
       <c r="H145" s="24" t="n">
-        <v>14481.19311</v>
+        <v>14538.23811</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>24758.14368</v>
+        <v>24808.41016</v>
       </c>
       <c r="J145" s="24" t="n">
         <v>35579.2666</v>
@@ -7036,17 +7178,22 @@
         <v>47001.42399</v>
       </c>
       <c r="L145" s="25" t="n">
-        <v>47625.0406</v>
+        <v>47645.14859</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>55589.52079</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>59991.68263</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>108449.053</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>150</v>
@@ -7119,14 +7271,19 @@
         <v>0</v>
       </c>
       <c r="M147" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+        <v>3.025</v>
+      </c>
+      <c r="N147" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>739.9349400000001</v>
@@ -7156,17 +7313,22 @@
         <v>6453.86263</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>9627.92878</v>
+        <v>9660.43202</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>10375.97961</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>10579.71738</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>11600.439</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>21323.17026</v>
@@ -7178,35 +7340,40 @@
         <v>28756.58418</v>
       </c>
       <c r="F149" s="33" t="n">
-        <v>28576.97548</v>
+        <v>28733.77339</v>
       </c>
       <c r="G149" s="23" t="n">
-        <v>27530.23099</v>
+        <v>27632.51631</v>
       </c>
       <c r="H149" s="33" t="n">
-        <v>28929.98389</v>
+        <v>29085.40715</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>35394.36439</v>
+        <v>35551.37616</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>45400.52972</v>
+        <v>45403.67052</v>
       </c>
       <c r="K149" s="23" t="n">
-        <v>66698.29515000001</v>
+        <v>66698.29514999999</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>77265.89293</v>
+        <v>78102.68111</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>94556.7135</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>100258.98147</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>137401.362</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>20011.32184</v>
@@ -7218,35 +7385,40 @@
         <v>26756.3629</v>
       </c>
       <c r="F150" s="21" t="n">
-        <v>27227.45121</v>
+        <v>27375.45086</v>
       </c>
       <c r="G150" s="22" t="n">
-        <v>25145.16724</v>
+        <v>25243.22256</v>
       </c>
       <c r="H150" s="21" t="n">
-        <v>25696.05097</v>
+        <v>25849.07423</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>31741.21404</v>
+        <v>31898.22581</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>40847.57496</v>
+        <v>40850.71576</v>
       </c>
       <c r="K150" s="22" t="n">
         <v>60545.84873999999</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>71326.46063</v>
+        <v>71655.94925999999</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>85206.72345</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>90988.88491000001</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>124217.06</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>506.06207</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>595.034</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>0</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>9.6996</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>1223.491</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>418.33921</v>
@@ -7338,10 +7520,10 @@
         <v>610.99695</v>
       </c>
       <c r="F153" s="21" t="n">
-        <v>397.97711</v>
+        <v>402.55037</v>
       </c>
       <c r="G153" s="22" t="n">
-        <v>991.58592</v>
+        <v>991.5859199999999</v>
       </c>
       <c r="H153" s="21" t="n">
         <v>1993.50261</v>
@@ -7356,17 +7538,22 @@
         <v>3161.1432</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>3206.15394</v>
+        <v>3216.17741</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>4431.47461</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>4483.44653</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>5171.735</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>893.5092099999999</v>
@@ -7378,13 +7565,13 @@
         <v>1362.97813</v>
       </c>
       <c r="F154" s="21" t="n">
-        <v>887.9465</v>
+        <v>892.1715</v>
       </c>
       <c r="G154" s="22" t="n">
-        <v>1393.47783</v>
+        <v>1397.70783</v>
       </c>
       <c r="H154" s="21" t="n">
-        <v>1106.07324</v>
+        <v>1108.47324</v>
       </c>
       <c r="I154" s="22" t="n">
         <v>1972.79645</v>
@@ -7396,17 +7583,22 @@
         <v>2714.57114</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>2374.88519</v>
+        <v>2872.16127</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>4402.753769999999</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>4270.88836</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>6194.042</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>482.8612900000001</v>
@@ -7458,16 +7655,16 @@
         <v>2555.71901</v>
       </c>
       <c r="F156" s="33" t="n">
-        <v>9359.30762</v>
+        <v>9359.307620000001</v>
       </c>
       <c r="G156" s="23" t="n">
         <v>10421.11458</v>
       </c>
       <c r="H156" s="33" t="n">
-        <v>8733.42535</v>
+        <v>8733.425350000001</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>5068.986180000001</v>
+        <v>5068.98618</v>
       </c>
       <c r="J156" s="33" t="n">
         <v>5586.0544</v>
@@ -7476,17 +7673,22 @@
         <v>6804.09284</v>
       </c>
       <c r="L156" s="23" t="n">
-        <v>7981.208739999999</v>
+        <v>8037.20874</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>11142.79331</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>11172.733</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>15308.42</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>358.29098</v>
@@ -7498,7 +7700,7 @@
         <v>2415.74477</v>
       </c>
       <c r="F157" s="21" t="n">
-        <v>9205.73122</v>
+        <v>9205.731220000001</v>
       </c>
       <c r="G157" s="22" t="n">
         <v>10285.94769</v>
@@ -7513,20 +7715,25 @@
         <v>5416.36496</v>
       </c>
       <c r="K157" s="22" t="n">
-        <v>6607.490130000001</v>
+        <v>6607.49013</v>
       </c>
       <c r="L157" s="22" t="n">
         <v>7942.593449999999</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>11142.79331</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>11095.433</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>15210.526</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>124.57031</v>
@@ -7556,17 +7763,22 @@
         <v>196.60271</v>
       </c>
       <c r="L158" s="22" t="n">
-        <v>38.61529</v>
+        <v>94.61528999999999</v>
       </c>
       <c r="M158" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+        <v>77.3</v>
+      </c>
+      <c r="N158" s="22" t="n">
+        <v>97.89400000000001</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>50057.02586</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>38779.103</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>50057.02586</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>38779.103</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,52 +7903,62 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>3486.03639</v>
       </c>
       <c r="D162" s="23" t="n">
-        <v>4338.521019999999</v>
+        <v>4338.52102</v>
       </c>
       <c r="E162" s="23" t="n">
-        <v>5287.335389999999</v>
+        <v>5287.33539</v>
       </c>
       <c r="F162" s="33" t="n">
-        <v>6560.525259999999</v>
+        <v>6586.46604</v>
       </c>
       <c r="G162" s="23" t="n">
-        <v>6784.25165</v>
+        <v>6786.81356</v>
       </c>
       <c r="H162" s="33" t="n">
-        <v>8093.27434</v>
+        <v>8100.30472</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>9463.536759999999</v>
+        <v>9471.069029999999</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>12492.18485</v>
+        <v>12492.44886</v>
       </c>
       <c r="K162" s="23" t="n">
         <v>14794.66307</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>13888.59214</v>
+        <v>13923.76581</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>20560.79274</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>20905.52445</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>27876.978</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>1500.85621</v>
@@ -7738,38 +7970,43 @@
         <v>2183.82003</v>
       </c>
       <c r="F163" s="21" t="n">
-        <v>2943.17833</v>
+        <v>2958.45566</v>
       </c>
       <c r="G163" s="22" t="n">
-        <v>2903.26471</v>
+        <v>2905.40876</v>
       </c>
       <c r="H163" s="21" t="n">
-        <v>3193.94272</v>
+        <v>3199.8616</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>3670.587</v>
+        <v>3676.00659</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>5224.65084</v>
+        <v>5224.914849999999</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>6420.01357</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>5734.323800000001</v>
+        <v>5756.832300000001</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>10097.31281</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>10297.35149</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>12109.873</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
-        <v>911.3904100000001</v>
+        <v>911.3904099999999</v>
       </c>
       <c r="D164" s="22" t="n">
         <v>1153.03895</v>
@@ -7778,16 +8015,16 @@
         <v>1318.17437</v>
       </c>
       <c r="F164" s="21" t="n">
-        <v>1357.63706</v>
+        <v>1368.30051</v>
       </c>
       <c r="G164" s="22" t="n">
-        <v>1299.85031</v>
+        <v>1300.26817</v>
       </c>
       <c r="H164" s="21" t="n">
-        <v>1473.54645</v>
+        <v>1474.65795</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>1793.38702</v>
+        <v>1795.4997</v>
       </c>
       <c r="J164" s="21" t="n">
         <v>2693.06477</v>
@@ -7796,17 +8033,22 @@
         <v>3656.95214</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>2505.35069</v>
+        <v>2515.54558</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>4747.621419999999</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>4816.257020000001</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>7268.485</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>1070.05199</v>
@@ -7827,26 +8069,31 @@
         <v>3381.15134</v>
       </c>
       <c r="I165" s="22" t="n">
-        <v>3970.280729999999</v>
+        <v>3970.28073</v>
       </c>
       <c r="J165" s="21" t="n">
-        <v>4537.98819</v>
+        <v>4537.988189999999</v>
       </c>
       <c r="K165" s="22" t="n">
         <v>4506.4193</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>5381.904880000001</v>
+        <v>5384.375160000001</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>5591.089690000001</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>5663.532149999999</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>8240.203</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>3.73778</v>
@@ -7858,7 +8105,7 @@
         <v>5.34533</v>
       </c>
       <c r="F166" s="21" t="n">
-        <v>4.9256</v>
+        <v>4.925599999999999</v>
       </c>
       <c r="G166" s="22" t="n">
         <v>1.6203</v>
@@ -7879,14 +8126,19 @@
         <v>267.01277</v>
       </c>
       <c r="M166" s="22" t="n">
-        <v>124.76882</v>
-      </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+        <v>128.38379</v>
+      </c>
+      <c r="N166" s="22" t="n">
+        <v>258.417</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>515.26377</v>
@@ -7898,7 +8150,7 @@
         <v>919.69181</v>
       </c>
       <c r="F167" s="33" t="n">
-        <v>958.1806899999999</v>
+        <v>961.31109</v>
       </c>
       <c r="G167" s="23" t="n">
         <v>1160.6649</v>
@@ -7910,23 +8162,28 @@
         <v>1459.77837</v>
       </c>
       <c r="J167" s="33" t="n">
-        <v>1050.79452</v>
+        <v>1055.77151</v>
       </c>
       <c r="K167" s="23" t="n">
         <v>1822.39222</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>1760.72585</v>
+        <v>1774.06843</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>2504.32365</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>2674.31477</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>4285.55</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>1070.96983</v>
@@ -7938,7 +8195,7 @@
         <v>1890.53426</v>
       </c>
       <c r="F168" s="21" t="n">
-        <v>2389.50597</v>
+        <v>2392.63637</v>
       </c>
       <c r="G168" s="22" t="n">
         <v>2756.19573</v>
@@ -7950,32 +8207,37 @@
         <v>3752.65296</v>
       </c>
       <c r="J168" s="21" t="n">
-        <v>4373.50477</v>
+        <v>4378.48176</v>
       </c>
       <c r="K168" s="22" t="n">
         <v>4449.66095</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>4934.90296</v>
+        <v>4947.18642</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>8511.906140000001</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>8803.39774</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>11076.89</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
-        <v>555.8593199999999</v>
+        <v>555.85932</v>
       </c>
       <c r="D169" s="22" t="n">
-        <v>638.4787799999999</v>
+        <v>638.47878</v>
       </c>
       <c r="E169" s="22" t="n">
-        <v>971.1831500000002</v>
+        <v>971.1831500000001</v>
       </c>
       <c r="F169" s="21" t="n">
         <v>1431.74924</v>
@@ -7996,17 +8258,22 @@
         <v>2627.95336</v>
       </c>
       <c r="L169" s="22" t="n">
-        <v>3174.94414</v>
+        <v>3173.88502</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>6094.29342</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>6215.7939</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>6792.251</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0.02547</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>0.02547</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>0</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>86.68546000000001</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>0.12779</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>54.08679</v>
@@ -8135,7 +8417,7 @@
         <v>220.33689</v>
       </c>
       <c r="E173" s="23" t="n">
-        <v>69.81849000000001</v>
+        <v>69.81849</v>
       </c>
       <c r="F173" s="33" t="n">
         <v>76.96584</v>
@@ -8150,23 +8432,28 @@
         <v>51.15991</v>
       </c>
       <c r="J173" s="33" t="n">
-        <v>90.56343000000001</v>
+        <v>90.56343</v>
       </c>
       <c r="K173" s="23" t="n">
         <v>142.70279</v>
       </c>
       <c r="L173" s="23" t="n">
-        <v>214.99515</v>
+        <v>217.78974</v>
       </c>
       <c r="M173" s="23" t="n">
-        <v>451.35549</v>
-      </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+        <v>455.20722</v>
+      </c>
+      <c r="N173" s="23" t="n">
+        <v>1064.345</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>0.0331</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>0.21268</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>91.19199999999999</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>54.05369</v>
@@ -8215,7 +8507,7 @@
         <v>186.16066</v>
       </c>
       <c r="E175" s="22" t="n">
-        <v>69.61649</v>
+        <v>69.61648999999998</v>
       </c>
       <c r="F175" s="21" t="n">
         <v>76.80378</v>
@@ -8236,17 +8528,22 @@
         <v>105.84073</v>
       </c>
       <c r="L175" s="22" t="n">
-        <v>210.0508</v>
+        <v>212.84539</v>
       </c>
       <c r="M175" s="22" t="n">
-        <v>451.14281</v>
-      </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+        <v>454.99454</v>
+      </c>
+      <c r="N175" s="22" t="n">
+        <v>973.153</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>246.67335</v>
@@ -8261,13 +8558,13 @@
         <v>222.57013</v>
       </c>
       <c r="G176" s="23" t="n">
-        <v>36.25134</v>
+        <v>36.88133999999999</v>
       </c>
       <c r="H176" s="33" t="n">
-        <v>82.26142999999999</v>
+        <v>82.89143</v>
       </c>
       <c r="I176" s="23" t="n">
-        <v>67.44144</v>
+        <v>68.07144</v>
       </c>
       <c r="J176" s="33" t="n">
         <v>209.89306</v>
@@ -8279,14 +8576,19 @@
         <v>247.54447</v>
       </c>
       <c r="M176" s="23" t="n">
-        <v>819.59664</v>
-      </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+        <v>378.58185</v>
+      </c>
+      <c r="N176" s="23" t="n">
+        <v>734.697</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>100.86416</v>
@@ -8319,14 +8621,19 @@
         <v>247.49284</v>
       </c>
       <c r="M177" s="22" t="n">
-        <v>818.74003</v>
-      </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+        <v>377.72524</v>
+      </c>
+      <c r="N177" s="22" t="n">
+        <v>734.64</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0.65001</v>
@@ -8341,13 +8648,13 @@
         <v>0</v>
       </c>
       <c r="G178" s="22" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="H178" s="21" t="n">
-        <v>0.2531</v>
+        <v>0.8831</v>
       </c>
       <c r="I178" s="22" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="J178" s="21" t="n">
         <v>0.68172</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>0.8</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>144.85918</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0.05661</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0.3</v>
@@ -8481,12 +8803,17 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>8890.991019999999</v>
@@ -8498,16 +8825,16 @@
         <v>14585.0257</v>
       </c>
       <c r="F182" s="33" t="n">
-        <v>17176.0779</v>
+        <v>17200.81585</v>
       </c>
       <c r="G182" s="23" t="n">
-        <v>15317.26959</v>
+        <v>15411.67036</v>
       </c>
       <c r="H182" s="33" t="n">
-        <v>21017.36994</v>
+        <v>21032.12528</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>30073.8489</v>
+        <v>30073.8499</v>
       </c>
       <c r="J182" s="33" t="n">
         <v>38733.42191</v>
@@ -8516,17 +8843,22 @@
         <v>49547.44029</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>43064.77853999999</v>
+        <v>43064.77854</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>59058.13799</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>60865.68287</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>103096.123</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>3140.63722</v>
@@ -8538,13 +8870,13 @@
         <v>8396.11526</v>
       </c>
       <c r="F183" s="33" t="n">
-        <v>8051.106519999999</v>
+        <v>8075.844470000001</v>
       </c>
       <c r="G183" s="23" t="n">
-        <v>5316.29337</v>
+        <v>5402.018099999999</v>
       </c>
       <c r="H183" s="33" t="n">
-        <v>10364.67014</v>
+        <v>10370.74944</v>
       </c>
       <c r="I183" s="23" t="n">
         <v>14667.6852</v>
@@ -8559,14 +8891,19 @@
         <v>16101.46557</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>27424.0883</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>27895.24358</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>45946.49</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>2684.87455</v>
@@ -8578,13 +8915,13 @@
         <v>8119.47505</v>
       </c>
       <c r="F184" s="21" t="n">
-        <v>7678.31362</v>
+        <v>7703.051570000001</v>
       </c>
       <c r="G184" s="22" t="n">
-        <v>5177.09834</v>
+        <v>5262.82307</v>
       </c>
       <c r="H184" s="21" t="n">
-        <v>10012.33911</v>
+        <v>10018.41841</v>
       </c>
       <c r="I184" s="22" t="n">
         <v>14460.73727</v>
@@ -8599,14 +8936,19 @@
         <v>15921.08982</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>27183.07922</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>27654.2345</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>44991.951</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>102.62404</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>289.08656</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>1044.403</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>17.96137</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>58.51514</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>89.864</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>371.1</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>10.43766</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>146.1572</v>
@@ -8858,7 +9230,7 @@
         <v>810.36377</v>
       </c>
       <c r="F191" s="33" t="n">
-        <v>614.82917</v>
+        <v>614.8291700000001</v>
       </c>
       <c r="G191" s="23" t="n">
         <v>957.23421</v>
@@ -8867,26 +9239,31 @@
         <v>1022.25876</v>
       </c>
       <c r="I191" s="23" t="n">
-        <v>1422.0395</v>
+        <v>1422.0405</v>
       </c>
       <c r="J191" s="33" t="n">
         <v>2719.9887</v>
       </c>
       <c r="K191" s="23" t="n">
-        <v>4578.18601</v>
+        <v>4578.186009999999</v>
       </c>
       <c r="L191" s="23" t="n">
         <v>5823.70318</v>
       </c>
       <c r="M191" s="23" t="n">
-        <v>4848.97951</v>
-      </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+        <v>4873.184399999999</v>
+      </c>
+      <c r="N191" s="23" t="n">
+        <v>10225.846</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>102.4172</v>
@@ -8907,7 +9284,7 @@
         <v>0</v>
       </c>
       <c r="I192" s="22" t="n">
-        <v>684.6805000000001</v>
+        <v>684.6815</v>
       </c>
       <c r="J192" s="21" t="n">
         <v>82.94969999999999</v>
@@ -8919,14 +9296,19 @@
         <v>2614.71363</v>
       </c>
       <c r="M192" s="22" t="n">
-        <v>463.80742</v>
-      </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+        <v>468.01231</v>
+      </c>
+      <c r="N192" s="22" t="n">
+        <v>598.317</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>43.74</v>
@@ -8959,14 +9341,19 @@
         <v>3208.98955</v>
       </c>
       <c r="M193" s="22" t="n">
-        <v>4385.17209</v>
-      </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+        <v>4405.17209</v>
+      </c>
+      <c r="N193" s="22" t="n">
+        <v>9627.529</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>0</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,15 +9478,20 @@
       <c r="M196" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
-        <v>4970.46951</v>
+        <v>4970.469510000001</v>
       </c>
       <c r="D197" s="23" t="n">
         <v>4567.17215</v>
@@ -9101,10 +9503,10 @@
         <v>8338.925319999998</v>
       </c>
       <c r="G197" s="23" t="n">
-        <v>8935.086150000001</v>
+        <v>8943.762190000001</v>
       </c>
       <c r="H197" s="33" t="n">
-        <v>9360.18642</v>
+        <v>9368.86246</v>
       </c>
       <c r="I197" s="23" t="n">
         <v>13855.00226</v>
@@ -9119,14 +9521,19 @@
         <v>21071.63932</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>26662.72487999999</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>27974.90959</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>46716.634</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>4918.540650000001</v>
@@ -9159,14 +9566,19 @@
         <v>19851.82727</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>26110.17066</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>27422.35537</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>45993.572</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>13.36</v>
@@ -9264,7 +9686,7 @@
         <v>309.10097</v>
       </c>
       <c r="H201" s="21" t="n">
-        <v>510.0169100000001</v>
+        <v>510.01691</v>
       </c>
       <c r="I201" s="22" t="n">
         <v>307.0509699999999</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>341.48867</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>363.166</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>38.56886</v>
@@ -9341,32 +9773,37 @@
         <v>75.8159</v>
       </c>
       <c r="G203" s="22" t="n">
-        <v>12.80865</v>
+        <v>21.48469</v>
       </c>
       <c r="H203" s="21" t="n">
-        <v>103.3262</v>
+        <v>112.00224</v>
       </c>
       <c r="I203" s="22" t="n">
         <v>103.3262</v>
       </c>
       <c r="J203" s="21" t="n">
-        <v>591.51267</v>
+        <v>591.5126700000001</v>
       </c>
       <c r="K203" s="22" t="n">
         <v>516.77082</v>
       </c>
       <c r="L203" s="22" t="n">
-        <v>856.59285</v>
+        <v>856.5928500000001</v>
       </c>
       <c r="M203" s="22" t="n">
         <v>211.06555</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>359.896</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>621.47569</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>2.39039</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>37.072</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>0</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>2.39039</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>37.072</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>621.47569</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>0</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>0</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>12.2514</v>
@@ -9641,12 +10108,17 @@
       <c r="M210" s="23" t="n">
         <v>119.95491</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>132.238</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>0</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>79.37166000000001</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>79.372</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>12.2514</v>
@@ -9721,12 +10198,17 @@
       <c r="M212" s="22" t="n">
         <v>40.58325</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>52.866</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>37.843</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>37.843</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>52487.32676</v>
@@ -9898,35 +10400,40 @@
         <v>69990.11947000001</v>
       </c>
       <c r="F217" s="33" t="n">
-        <v>75086.17371999999</v>
+        <v>75174.13931999999</v>
       </c>
       <c r="G217" s="23" t="n">
-        <v>80481.57079</v>
+        <v>80638.63081999999</v>
       </c>
       <c r="H217" s="33" t="n">
-        <v>88564.39391</v>
+        <v>88820.32124999999</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>112595.08901</v>
+        <v>112889.71781</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>120825.77503</v>
+        <v>120839.85831</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>159516.64868</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>144866.04556</v>
+        <v>144780.53151</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>182876.53875</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>186326.15992</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>254752.519</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>38521.57478</v>
@@ -9938,19 +10445,19 @@
         <v>49643.61671</v>
       </c>
       <c r="F218" s="33" t="n">
-        <v>50491.59915000001</v>
+        <v>50557.83173000001</v>
       </c>
       <c r="G218" s="23" t="n">
-        <v>48076.58733</v>
+        <v>48129.26502000001</v>
       </c>
       <c r="H218" s="33" t="n">
-        <v>48164.14231</v>
+        <v>48275.57001</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>59052.67281</v>
+        <v>59174.1005</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>56413.38449</v>
+        <v>56608.38449</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>72259.49167</v>
@@ -9959,54 +10466,64 @@
         <v>67873.1254</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>84017.17044</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>85027.28943</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>109519.092</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>46102.437</v>
       </c>
       <c r="D219" s="22" t="n">
-        <v>63065.24778</v>
+        <v>63065.24777999999</v>
       </c>
       <c r="E219" s="22" t="n">
         <v>65234.81309999999</v>
       </c>
       <c r="F219" s="21" t="n">
-        <v>63582.20020000001</v>
+        <v>63637.20020000001</v>
       </c>
       <c r="G219" s="22" t="n">
-        <v>51088.78703</v>
+        <v>51123.78703</v>
       </c>
       <c r="H219" s="21" t="n">
-        <v>52331.52723</v>
+        <v>52686.52724</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>62493.94372</v>
+        <v>62858.94372</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>60279.50116</v>
+        <v>60474.50116</v>
       </c>
       <c r="K219" s="22" t="n">
-        <v>77156.81173999999</v>
+        <v>77156.81174</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>75406.41918000001</v>
+        <v>76803.11918000001</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>96402.32019</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>101480.01918</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>134280.391</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>13203.64882</v>
@@ -10024,10 +10541,10 @@
         <v>7952.868820000001</v>
       </c>
       <c r="H220" s="21" t="n">
-        <v>7569.64098</v>
+        <v>7830.89098</v>
       </c>
       <c r="I220" s="22" t="n">
-        <v>8523.82185</v>
+        <v>8785.07185</v>
       </c>
       <c r="J220" s="21" t="n">
         <v>6814.04806</v>
@@ -10036,17 +10553,22 @@
         <v>7772.524600000001</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>10293.61592</v>
+        <v>11690.31592</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>15097.69431</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>19165.27431</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>27499.971</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>5633.67745</v>
@@ -10055,19 +10577,19 @@
         <v>5272.41659</v>
       </c>
       <c r="E221" s="22" t="n">
-        <v>4531.505679999999</v>
+        <v>4531.50568</v>
       </c>
       <c r="F221" s="21" t="n">
-        <v>4351.70438</v>
+        <v>4362.93696</v>
       </c>
       <c r="G221" s="22" t="n">
-        <v>4948.68295</v>
+        <v>4966.36064</v>
       </c>
       <c r="H221" s="21" t="n">
-        <v>3409.67122</v>
+        <v>3427.34891</v>
       </c>
       <c r="I221" s="22" t="n">
-        <v>5089.9661</v>
+        <v>5107.64379</v>
       </c>
       <c r="J221" s="21" t="n">
         <v>2955.34655</v>
@@ -10081,12 +10603,17 @@
       <c r="M221" s="22" t="n">
         <v>2719.95972</v>
       </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+      <c r="N221" s="22" t="n">
+        <v>2746.087</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>10.89085</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>7.41516</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>7.415</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>133.18122</v>
@@ -10159,14 +10691,19 @@
         <v>7381.870290000001</v>
       </c>
       <c r="M223" s="23" t="n">
-        <v>5953.08546</v>
-      </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+        <v>5953.085460000001</v>
+      </c>
+      <c r="N223" s="23" t="n">
+        <v>5353.412</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>41.78657</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>574.0390900000001</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>482.086</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>3913.00585</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>3498.471</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>91.39465</v>
@@ -10433,7 +11000,7 @@
         <v>861.71479</v>
       </c>
       <c r="K230" s="22" t="n">
-        <v>855.8752000000001</v>
+        <v>855.8751999999999</v>
       </c>
       <c r="L230" s="22" t="n">
         <v>1380.037</v>
@@ -10441,12 +11008,17 @@
       <c r="M230" s="22" t="n">
         <v>1466.04052</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>1372.855</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>2908.31904</v>
@@ -10455,41 +11027,46 @@
         <v>2866.85669</v>
       </c>
       <c r="E231" s="23" t="n">
-        <v>3111.013539999999</v>
+        <v>3111.01354</v>
       </c>
       <c r="F231" s="33" t="n">
-        <v>3557.14313</v>
+        <v>3557.59524</v>
       </c>
       <c r="G231" s="23" t="n">
-        <v>3837.48615</v>
+        <v>3837.78303</v>
       </c>
       <c r="H231" s="33" t="n">
-        <v>4367.79187</v>
+        <v>4368.08875</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>17719.29121</v>
+        <v>17719.58809</v>
       </c>
       <c r="J231" s="33" t="n">
         <v>7684.05403</v>
       </c>
       <c r="K231" s="23" t="n">
-        <v>8656.801130000002</v>
+        <v>8656.80113</v>
       </c>
       <c r="L231" s="23" t="n">
         <v>8297.34845</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>10056.6917</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>10089.02995</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>10223.45</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
-        <v>501.1301900000001</v>
+        <v>501.13019</v>
       </c>
       <c r="D232" s="22" t="n">
         <v>699.65317</v>
@@ -10498,16 +11075,16 @@
         <v>772.85406</v>
       </c>
       <c r="F232" s="21" t="n">
-        <v>905.76935</v>
+        <v>906.22146</v>
       </c>
       <c r="G232" s="22" t="n">
-        <v>994.1616300000001</v>
+        <v>994.45851</v>
       </c>
       <c r="H232" s="21" t="n">
-        <v>1132.63313</v>
+        <v>1132.93001</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>1740.68811</v>
+        <v>1740.98499</v>
       </c>
       <c r="J232" s="21" t="n">
         <v>1789.61276</v>
@@ -10519,14 +11096,19 @@
         <v>2367.99522</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>2705.27997</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>2737.61822</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>2523.094</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>222.72397</v>
@@ -10561,12 +11143,17 @@
       <c r="M233" s="22" t="n">
         <v>228.6916</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>231.956</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>1057.09488</v>
@@ -10587,7 +11174,7 @@
         <v>2223.64822</v>
       </c>
       <c r="I234" s="22" t="n">
-        <v>6593.730710000001</v>
+        <v>6593.73071</v>
       </c>
       <c r="J234" s="21" t="n">
         <v>3234.84738</v>
@@ -10601,12 +11188,17 @@
       <c r="M234" s="22" t="n">
         <v>4433.05639</v>
       </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+      <c r="N234" s="22" t="n">
+        <v>3746.772</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>80.50202</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>641.14658</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>188.969</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>1046.86798</v>
@@ -10664,7 +11261,7 @@
         <v>174.31024</v>
       </c>
       <c r="H236" s="21" t="n">
-        <v>629.1498399999999</v>
+        <v>629.14984</v>
       </c>
       <c r="I236" s="22" t="n">
         <v>8698.28703</v>
@@ -10681,12 +11278,17 @@
       <c r="M236" s="22" t="n">
         <v>2048.51716</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>3532.659</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>17201.07552</v>
@@ -10698,35 +11300,40 @@
         <v>27049.6911</v>
       </c>
       <c r="F237" s="33" t="n">
-        <v>31129.99028</v>
+        <v>31173.95508</v>
       </c>
       <c r="G237" s="23" t="n">
-        <v>37493.04216</v>
+        <v>37560.28881000001</v>
       </c>
       <c r="H237" s="33" t="n">
-        <v>43787.36920999999</v>
+        <v>43921.96966</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>49587.49316</v>
+        <v>49762.19553</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>62490.72797</v>
+        <v>62497.15242</v>
       </c>
       <c r="K237" s="23" t="n">
-        <v>72887.05923999999</v>
+        <v>72887.05924</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>82102.45619999999</v>
+        <v>82114.5621</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>92377.93703999999</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>93900.13064</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>124879.732</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-10155.04475</v>
@@ -10738,35 +11345,40 @@
         <v>-13321.73819</v>
       </c>
       <c r="F238" s="33" t="n">
-        <v>-17499.09782</v>
+        <v>-17521.51174</v>
       </c>
       <c r="G238" s="23" t="n">
-        <v>-18333.35621</v>
+        <v>-18343.65282</v>
       </c>
       <c r="H238" s="33" t="n">
-        <v>-16546.59243</v>
+        <v>-16588.00354</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-30521.26833</v>
+        <v>-30565.46012</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-22211.22933</v>
+        <v>-22411.672</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-30047.88505</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-28724.04008</v>
+        <v>-28777.82349</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-39315.76488999999</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-39202.38729</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-47249.466</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>3878.22095</v>
@@ -10778,38 +11390,43 @@
         <v>3056.96659</v>
       </c>
       <c r="F239" s="33" t="n">
-        <v>7017.96926</v>
+        <v>7017.699290000001</v>
       </c>
       <c r="G239" s="23" t="n">
-        <v>9232.861229999999</v>
+        <v>9279.996650000001</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>8267.176310000001</v>
+        <v>8318.18973</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>16122.35393</v>
+        <v>16164.74758</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>11802.85909</v>
+        <v>11815.96059</v>
       </c>
       <c r="K239" s="23" t="n">
         <v>31283.63878</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>7935.2853</v>
+        <v>7891.448759999998</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>29787.419</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>30559.01173</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>52026.299</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
-        <v>6261.01151</v>
+        <v>6261.011509999999</v>
       </c>
       <c r="D240" s="22" t="n">
         <v>9198.059640000001</v>
@@ -10818,35 +11435,40 @@
         <v>9413.8413</v>
       </c>
       <c r="F240" s="21" t="n">
-        <v>12576.48722</v>
+        <v>12589.77909</v>
       </c>
       <c r="G240" s="22" t="n">
-        <v>13807.32015</v>
+        <v>13882.28566</v>
       </c>
       <c r="H240" s="21" t="n">
-        <v>14213.44962</v>
+        <v>14266.72548</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>20111.33412</v>
+        <v>20175.19829</v>
       </c>
       <c r="J240" s="21" t="n">
-        <v>20158.40205</v>
+        <v>20175.43714</v>
       </c>
       <c r="K240" s="22" t="n">
         <v>35741.38049</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>22863.19291000001</v>
+        <v>22946.71584</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>39788.91653</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>40766.73132</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>63509.382</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>2382.79056</v>
@@ -10855,38 +11477,43 @@
         <v>2285.62661</v>
       </c>
       <c r="E241" s="22" t="n">
-        <v>6356.874709999999</v>
+        <v>6356.87471</v>
       </c>
       <c r="F241" s="21" t="n">
-        <v>5558.51796</v>
+        <v>5572.0798</v>
       </c>
       <c r="G241" s="22" t="n">
-        <v>4574.45892</v>
+        <v>4602.28901</v>
       </c>
       <c r="H241" s="21" t="n">
-        <v>5946.27331</v>
+        <v>5948.53575</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>3988.98019</v>
+        <v>4010.45071</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>8355.542960000001</v>
+        <v>8359.476549999999</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>4457.74171</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>14927.90761</v>
+        <v>15055.26708</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>10001.49753</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>10207.71959</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>11483.083</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>127107.53105</v>
@@ -10898,32 +11525,35 @@
         <v>186784.6007</v>
       </c>
       <c r="F242" s="48" t="n">
-        <v>221030.8169</v>
+        <v>221383.78417</v>
       </c>
       <c r="G242" s="47" t="n">
-        <v>240937.51923</v>
+        <v>241488.05682</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>257201.82249</v>
+        <v>257768.54116</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>328191.56296</v>
+        <v>328785.34809</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>394960.10257</v>
+        <v>394982.56765</v>
       </c>
       <c r="K242" s="47" t="n">
-        <v>522931.5888200001</v>
+        <v>522931.58882</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>518606.8299</v>
+        <v>520245.01884</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>681400.79515</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>709609.9160699999</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>1011073.322</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>665</v>
@@ -10954,32 +11587,35 @@
         <v>719</v>
       </c>
       <c r="F244" s="53" t="n">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G244" s="52" t="n">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H244" s="53" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>641</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>654</v>
+        <v>679</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>714</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>763</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>897</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>